--- a/DataBases/ADONET/ADONET.Homework/scores.xlsx
+++ b/DataBases/ADONET/ADONET.Homework/scores.xlsx
@@ -5,14 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="971" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" state="visible" r:id="rId2" name="Sheet1"/>
+    <sheet sheetId="2" state="visible" r:id="rId3" name="Sheet2"/>
+    <sheet sheetId="3" state="visible" r:id="rId4" name="Sheet3"/>
+    <sheet sheetId="4" state="visible" r:id="rId5" name="Table1"/>
+    <sheet r:id="rId7" sheetId="5" name="Table2"/>
+    <sheet r:id="rId8" sheetId="6" name="Table3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="Table1">'Table1'!$A$1:$C$1</definedName>
+    <definedName name="Table2">'Table2'!$A$1:$C$2</definedName>
+    <definedName name="Table3">'Table3'!$A$1:$C$5</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -33,13 +41,28 @@
     <t xml:space="preserve">Svetlin Nakon</t>
   </si>
   <si>
+    <t xml:space="preserve">Svetlin Nakov</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doncho Minkov</t>
   </si>
   <si>
+    <t xml:space="preserve">Doncho Minkow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nikolaj Kostov</t>
   </si>
   <si>
     <t xml:space="preserve">George Georgiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
   </si>
 </sst>
 </file>
@@ -54,6 +77,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,10 +137,18 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -135,16 +167,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,31 +191,43 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>20</v>
       </c>
     </row>
@@ -205,21 +249,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -234,24 +277,242 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Doncho Minkov</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Doncho Minkov</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Svetlin Nakov</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Nikolay Kostov</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Goerge Georgiev</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBases/ADONET/ADONET.Homework/scores.xlsx
+++ b/DataBases/ADONET/ADONET.Homework/scores.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Table1">'Table1'!$A$1:$C$1</definedName>
     <definedName name="Table2">'Table2'!$A$1:$C$2</definedName>
-    <definedName name="Table3">'Table3'!$A$1:$C$5</definedName>
+    <definedName name="Table3">'Table3'!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="true"/>
   <extLst>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -512,6 +512,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Doncho Minkov</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBases/ADONET/ADONET.Homework/scores.xlsx
+++ b/DataBases/ADONET/ADONET.Homework/scores.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Table1">'Table1'!$A$1:$C$1</definedName>
     <definedName name="Table2">'Table2'!$A$1:$C$2</definedName>
-    <definedName name="Table3">'Table3'!$A$1:$C$6</definedName>
+    <definedName name="Table3">'Table3'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001" fullCalcOnLoad="true"/>
   <extLst>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -529,6 +529,40 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Doncho Minkov</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Doncho Minkov</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
